--- a/seriea2223raw.xlsx
+++ b/seriea2223raw.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/idrishedayat/Documents/STAT0035/DissertationOfficial/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{D34A88A2-AC14-3445-959D-4B00F0024334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D8FC5C-899D-3F41-91B6-BA215263E884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
+    <workbookView xWindow="460" yWindow="2080" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -416,7 +416,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1293,11 +1293,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M381"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A299" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I218" sqref="I218"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/seriea2223raw.xlsx
+++ b/seriea2223raw.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/idrishedayat/Documents/STAT0035/DissertationOfficial/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D8FC5C-899D-3F41-91B6-BA215263E884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE0D568B-018E-BB4D-B1C9-5B8C0B85CD1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="460" yWindow="2080" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -1297,7 +1297,7 @@
   <dimension ref="A1:M381"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
